--- a/data/Variable_info.xlsx
+++ b/data/Variable_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1-2.데이터싸이언스!\AI boot camp\CP2\modeling실습\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Github\AIB15\Projects\Kor-DEEPression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD68480-2216-4D8C-822C-B5BDEC115661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1570-0B54-4AA4-9656-7B4F32097C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="360" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
+    <workbookView xWindow="28860" yWindow="5370" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
   </bookViews>
   <sheets>
     <sheet name="변수 정리" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="158">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,10 @@
   </si>
   <si>
     <t>평소 일상생활 중에 스트레스를 어느 정도 느끼고 있습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,12 +715,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -733,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,16 +757,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D4A18-51A8-4F05-99E1-61A71D2C29A7}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1105,7 @@
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1097,7 +1122,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1105,41 +1130,39 @@
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1147,7 +1170,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1162,7 +1185,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1177,14 +1200,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1195,13 +1218,13 @@
       <c r="B11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1209,13 +1232,13 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1223,19 +1246,19 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1252,24 +1275,24 @@
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1286,41 +1309,41 @@
       <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1328,224 +1351,272 @@
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>98</v>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>99</v>
+      <c r="G22" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="8" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1562,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDFA0E-02AF-41EA-9A69-647E3483D603}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,7 +1645,7 @@
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1591,7 +1662,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1599,86 +1670,72 @@
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
@@ -1738,7 +1795,7 @@
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1755,7 +1812,7 @@
       <c r="F14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1772,7 +1829,7 @@
       <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1789,7 +1846,7 @@
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1806,7 +1863,7 @@
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1823,7 +1880,7 @@
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1840,7 +1897,7 @@
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1857,7 +1914,7 @@
       <c r="F20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1874,7 +1931,7 @@
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1891,7 +1948,7 @@
       <c r="F22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1908,7 +1965,7 @@
       <c r="F23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1925,7 +1982,7 @@
       <c r="F24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1942,7 +1999,7 @@
       <c r="F25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1959,7 +2016,7 @@
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1976,7 +2033,7 @@
       <c r="F27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1993,7 +2050,7 @@
       <c r="F28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2010,7 +2067,7 @@
       <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2027,7 +2084,7 @@
       <c r="F30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>156</v>
       </c>
     </row>

--- a/data/Variable_info.xlsx
+++ b/data/Variable_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Github\AIB15\Projects\Kor-DEEPression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1570-0B54-4AA4-9656-7B4F32097C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFC9CF-4B5E-4083-8783-AA378166E440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="5370" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
   </bookViews>
@@ -749,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,22 +759,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D4A18-51A8-4F05-99E1-61A71D2C29A7}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,42 +1121,42 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1170,7 +1164,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1179,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1200,14 +1194,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1218,13 +1212,13 @@
       <c r="B11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1232,13 +1226,13 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1246,13 +1240,13 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1280,13 +1274,13 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1314,13 +1308,13 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1331,13 +1325,13 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1351,13 +1345,13 @@
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1368,13 +1362,13 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1385,13 +1379,13 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1402,13 +1396,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1419,13 +1413,13 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1436,13 +1430,13 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1453,13 +1447,13 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1473,30 +1467,30 @@
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1507,13 +1501,13 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1524,13 +1518,13 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1541,13 +1535,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1555,13 +1549,13 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1667,7 +1661,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1681,7 +1675,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>

--- a/data/Variable_info.xlsx
+++ b/data/Variable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Github\AIB15\Projects\Kor-DEEPression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFC9CF-4B5E-4083-8783-AA378166E440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD347BB-74F8-4F3D-A70B-291042B14D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="5370" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
+    <workbookView xWindow="28905" yWindow="6315" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
   </bookViews>
   <sheets>
     <sheet name="변수 정리" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,30 @@
   </si>
   <si>
     <t>우울증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서당,한학/무학/초등학교/중등/고등/2~3년제/4년제/대학원/99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2 : 유배우자 / 3~4 : 사별 이혼 / 88 : 미혼 /99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 취업자 / 2 : 실업자,비경제활동인구 /9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 1년 동안의 음주(술) 경험에 대한 질문입니다. 술을 얼마나 자주 마십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 1년 동안의 음주(술) 경험에 대한 질문입니다. 한번에 술을 얼마나 마십니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D4A18-51A8-4F05-99E1-61A71D2C29A7}">
-  <dimension ref="B2:G37"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1127,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
@@ -1134,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1146,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>153</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>71</v>
@@ -1178,7 +1202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>72</v>
@@ -1193,7 +1217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
         <v>73</v>
@@ -1208,7 +1232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>154</v>
       </c>
@@ -1225,7 +1249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1263,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>99</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
@@ -1250,13 +1277,13 @@
         <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
@@ -1290,7 +1317,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1334,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>99</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
@@ -1318,13 +1348,16 @@
         <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1335,13 +1368,16 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
@@ -1361,7 +1397,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
@@ -1378,7 +1417,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1437,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
@@ -1412,7 +1454,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1429,7 +1471,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1491,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
@@ -1463,7 +1508,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>127</v>
       </c>
@@ -1500,7 +1545,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1508,16 +1556,19 @@
         <v>130</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1531,10 +1582,10 @@
         <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>143</v>
       </c>
@@ -1548,7 +1599,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>138</v>
       </c>
@@ -1565,7 +1619,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>157</v>
       </c>
@@ -1582,7 +1636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1596,14 +1650,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">

--- a/data/Variable_info.xlsx
+++ b/data/Variable_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Github\AIB15\Projects\Kor-DEEPression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD1570-0B54-4AA4-9656-7B4F32097C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD347BB-74F8-4F3D-A70B-291042B14D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="5370" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
+    <workbookView xWindow="28905" yWindow="6315" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
   </bookViews>
   <sheets>
     <sheet name="변수 정리" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,30 @@
   </si>
   <si>
     <t>우울증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서당,한학/무학/초등학교/중등/고등/2~3년제/4년제/대학원/99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2 : 유배우자 / 3~4 : 사별 이혼 / 88 : 미혼 /99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 취업자 / 2 : 실업자,비경제활동인구 /9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 1년 동안의 음주(술) 경험에 대한 질문입니다. 술을 얼마나 자주 마십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 1년 동안의 음주(술) 경험에 대한 질문입니다. 한번에 술을 얼마나 마십니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,22 +783,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D4A18-51A8-4F05-99E1-61A71D2C29A7}">
-  <dimension ref="B2:G37"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1127,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,51 +1144,51 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1184,8 +1202,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1199,70 +1217,73 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1279,14 +1300,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1296,7 +1317,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,51 +1334,60 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>99</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1367,14 +1397,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1384,14 +1417,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1401,14 +1437,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1418,14 +1454,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1435,14 +1471,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1452,14 +1491,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="8" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1469,34 +1508,34 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1506,62 +1545,71 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="8" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>78</v>
+      <c r="E30" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="8" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1571,7 +1619,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>157</v>
       </c>
@@ -1588,7 +1636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1602,14 +1650,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1667,7 +1715,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1681,7 +1729,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>

--- a/data/Variable_info.xlsx
+++ b/data/Variable_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Github\AIB15\Projects\Kor-DEEPression\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1-2.데이터싸이언스!\DATA PROJECTS\DEEPression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD347BB-74F8-4F3D-A70B-291042B14D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E398ACF-D127-4A80-B1CA-1BD5772451A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28905" yWindow="6315" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
+    <workbookView xWindow="28755" yWindow="5700" windowWidth="16005" windowHeight="15135" xr2:uid="{EE446920-0EED-43F1-9778-DFA11599149A}"/>
   </bookViews>
   <sheets>
     <sheet name="변수 정리" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="202">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,22 +671,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평소 일상생활 중에 스트레스를 어느 정도 느끼고 있습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우울증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서당,한학/무학/초등학교/중등/고등/2~3년제/4년제/대학원/99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,6 +696,170 @@
   </si>
   <si>
     <t>최근 1년 동안의 음주(술) 경험에 대한 질문입니다. 한번에 술을 얼마나 마십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고혈압 유병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,  2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 정상 / 2 : 고혈압전단계 / 3 : 고혈압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_HCHOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_HTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨병 유병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고콜레스테롤혈증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고중성지방혈증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 없음 / 1 : 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 정상 / 2 : 공복혈당장애 / 3 : 당뇨병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>household</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subj_health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_chol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_tg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drk_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drk_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +945,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,25 +1270,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812D4A18-51A8-4F05-99E1-61A71D2C29A7}">
-  <dimension ref="A2:G37"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,14 +1300,17 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
@@ -1157,8 +1323,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1167,10 +1339,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>153</v>
       </c>
@@ -1183,41 +1364,53 @@
       <c r="E6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
         <v>73</v>
@@ -1228,13 +1421,19 @@
       <c r="E9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>154</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1245,45 +1444,61 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>99</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,14 +1508,15 @@
       <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
@@ -1310,14 +1526,21 @@
       <c r="E15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,17 +1550,21 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>99</v>
       </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
@@ -1347,17 +1574,24 @@
       <c r="E17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>9</v>
       </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1367,40 +1601,53 @@
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
@@ -1410,17 +1657,24 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>9</v>
       </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1430,14 +1684,21 @@
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
@@ -1447,14 +1708,18 @@
       <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1464,17 +1729,21 @@
       <c r="E24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9</v>
       </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
@@ -1484,14 +1753,21 @@
       <c r="E25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
@@ -1501,176 +1777,309 @@
       <c r="E26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>9</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="B34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E34" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="I34" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="4" t="s">
+      <c r="I35" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>9</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B21:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2133,7 +2542,7 @@
         <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
